--- a/group-reports/tables/sharif-results-test-5.xlsx
+++ b/group-reports/tables/sharif-results-test-5.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -707,32 +707,32 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212 usec</t>
         </is>
       </c>
       <c r="M3" s="1" t="inlineStr">
         <is>
-          <t>616567</t>
+          <t>616567 usec</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
-          <t>6855.23</t>
+          <t>6855.23 usec</t>
         </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>587 usec</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>701124</t>
+          <t>701124 usec</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>23665.88</t>
+          <t>23665.88 usec</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -829,32 +829,32 @@
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>194 usec</t>
         </is>
       </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>1664.2k</t>
+          <t>1664.2k usec</t>
         </is>
       </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
-          <t>87029.59</t>
+          <t>87029.59 usec</t>
         </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>985 usec</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>2283.8k</t>
+          <t>2283.8k usec</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>235508.67</t>
+          <t>235508.67 usec</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>202 usec</t>
         </is>
       </c>
       <c r="M5" s="1" t="inlineStr">
         <is>
-          <t>502523</t>
+          <t>502523 usec</t>
         </is>
       </c>
       <c r="N5" s="1" t="inlineStr">
         <is>
-          <t>6577.76</t>
+          <t>6577.76 usec</t>
         </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>578 usec</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>833566</t>
+          <t>833566 usec</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>26207.52</t>
+          <t>26207.52 usec</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1073,32 +1073,32 @@
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>257 usec</t>
         </is>
       </c>
       <c r="M6" s="1" t="inlineStr">
         <is>
-          <t>442230</t>
+          <t>442230 usec</t>
         </is>
       </c>
       <c r="N6" s="1" t="inlineStr">
         <is>
-          <t>11288.13</t>
+          <t>11288.13 usec</t>
         </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>569 usec</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>453980</t>
+          <t>453980 usec</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>13450.46</t>
+          <t>13450.46 usec</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1195,32 +1195,32 @@
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>197 usec</t>
         </is>
       </c>
       <c r="M7" s="1" t="inlineStr">
         <is>
-          <t>20316k</t>
+          <t>20316k usec</t>
         </is>
       </c>
       <c r="N7" s="1" t="inlineStr">
         <is>
-          <t>7887.41</t>
+          <t>7887.41 usec</t>
         </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>479 usec</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>20263k</t>
+          <t>20263k usec</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>32728.36</t>
+          <t>32728.36 usec</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1317,32 +1317,32 @@
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>193 usec</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr">
         <is>
-          <t>1180.7k</t>
+          <t>1180.7k usec</t>
         </is>
       </c>
       <c r="N8" s="1" t="inlineStr">
         <is>
-          <t>6690.35</t>
+          <t>6690.35 usec</t>
         </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>587 usec</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>1193.0k</t>
+          <t>1193.0k usec</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>23994.83</t>
+          <t>23994.83 usec</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1439,32 +1439,32 @@
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>203 usec</t>
         </is>
       </c>
       <c r="M9" s="1" t="inlineStr">
         <is>
-          <t>719230</t>
+          <t>719230 usec</t>
         </is>
       </c>
       <c r="N9" s="1" t="inlineStr">
         <is>
-          <t>10439.75</t>
+          <t>10439.75 usec</t>
         </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>500 usec</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>783755</t>
+          <t>783755 usec</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>21851.64</t>
+          <t>21851.64 usec</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1561,32 +1561,32 @@
       </c>
       <c r="L10" s="1" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>187 usec</t>
         </is>
       </c>
       <c r="M10" s="1" t="inlineStr">
         <is>
-          <t>793993</t>
+          <t>793993 usec</t>
         </is>
       </c>
       <c r="N10" s="1" t="inlineStr">
         <is>
-          <t>7661.62</t>
+          <t>7661.62 usec</t>
         </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>392 usec</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>826038</t>
+          <t>826038 usec</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>31595.36</t>
+          <t>31595.36 usec</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212 usec</t>
         </is>
       </c>
       <c r="M11" s="1" t="inlineStr">
         <is>
-          <t>867599</t>
+          <t>867599 usec</t>
         </is>
       </c>
       <c r="N11" s="1" t="inlineStr">
         <is>
-          <t>11511.55</t>
+          <t>11511.55 usec</t>
         </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>643 usec</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>891430</t>
+          <t>891430 usec</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>19921.21</t>
+          <t>19921.21 usec</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1805,32 +1805,32 @@
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>221 usec</t>
         </is>
       </c>
       <c r="M12" s="1" t="inlineStr">
         <is>
-          <t>735549</t>
+          <t>735549 usec</t>
         </is>
       </c>
       <c r="N12" s="1" t="inlineStr">
         <is>
-          <t>10540.75</t>
+          <t>10540.75 usec</t>
         </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>635 usec</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>812513</t>
+          <t>812513 usec</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>18283.45</t>
+          <t>18283.45 usec</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1927,32 +1927,32 @@
       </c>
       <c r="L13" s="1" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>208 usec</t>
         </is>
       </c>
       <c r="M13" s="1" t="inlineStr">
         <is>
-          <t>874785</t>
+          <t>874785 usec</t>
         </is>
       </c>
       <c r="N13" s="1" t="inlineStr">
         <is>
-          <t>10944.80</t>
+          <t>10944.80 usec</t>
         </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>897 usec</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>893861</t>
+          <t>893861 usec</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>20155.50</t>
+          <t>20155.50 usec</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2049,32 +2049,32 @@
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200 usec</t>
         </is>
       </c>
       <c r="M14" s="1" t="inlineStr">
         <is>
-          <t>1674.6k</t>
+          <t>1674.6k usec</t>
         </is>
       </c>
       <c r="N14" s="1" t="inlineStr">
         <is>
-          <t>78650.20</t>
+          <t>78650.20 usec</t>
         </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>905 usec</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>2941.4k</t>
+          <t>2941.4k usec</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>243416.89</t>
+          <t>243416.89 usec</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -2171,32 +2171,32 @@
       </c>
       <c r="L15" s="1" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>199 usec</t>
         </is>
       </c>
       <c r="M15" s="1" t="inlineStr">
         <is>
-          <t>468925</t>
+          <t>468925 usec</t>
         </is>
       </c>
       <c r="N15" s="1" t="inlineStr">
         <is>
-          <t>11350.01</t>
+          <t>11350.01 usec</t>
         </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>551 usec</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>646099</t>
+          <t>646099 usec</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>22394.93</t>
+          <t>22394.93 usec</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
@@ -2293,32 +2293,32 @@
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>220 usec</t>
         </is>
       </c>
       <c r="M16" s="1" t="inlineStr">
         <is>
-          <t>788447</t>
+          <t>788447 usec</t>
         </is>
       </c>
       <c r="N16" s="1" t="inlineStr">
         <is>
-          <t>9947.71</t>
+          <t>9947.71 usec</t>
         </is>
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>627 usec</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>810721</t>
+          <t>810721 usec</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>17198.73</t>
+          <t>17198.73 usec</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
@@ -2415,32 +2415,32 @@
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>201 usec</t>
         </is>
       </c>
       <c r="M17" s="1" t="inlineStr">
         <is>
-          <t>747182</t>
+          <t>747182 usec</t>
         </is>
       </c>
       <c r="N17" s="1" t="inlineStr">
         <is>
-          <t>10425.60</t>
+          <t>10425.60 usec</t>
         </is>
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>402 usec</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>837399</t>
+          <t>837399 usec</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
         <is>
-          <t>21417.70</t>
+          <t>21417.70 usec</t>
         </is>
       </c>
       <c r="R17" s="1" t="inlineStr">
@@ -2537,32 +2537,32 @@
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>249 usec</t>
         </is>
       </c>
       <c r="M18" s="1" t="inlineStr">
         <is>
-          <t>459727</t>
+          <t>459727 usec</t>
         </is>
       </c>
       <c r="N18" s="1" t="inlineStr">
         <is>
-          <t>12380.32</t>
+          <t>12380.32 usec</t>
         </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>646 usec</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>461274</t>
+          <t>461274 usec</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
         <is>
-          <t>14898.78</t>
+          <t>14898.78 usec</t>
         </is>
       </c>
       <c r="R18" s="1" t="inlineStr">
@@ -2659,32 +2659,32 @@
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>187 usec</t>
         </is>
       </c>
       <c r="M19" s="1" t="inlineStr">
         <is>
-          <t>1485.5k</t>
+          <t>1485.5k usec</t>
         </is>
       </c>
       <c r="N19" s="1" t="inlineStr">
         <is>
-          <t>75448.10</t>
+          <t>75448.10 usec</t>
         </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>623 usec</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>1705.6k</t>
+          <t>1705.6k usec</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>229553.92</t>
+          <t>229553.92 usec</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
@@ -2781,32 +2781,32 @@
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>250 usec</t>
         </is>
       </c>
       <c r="M20" s="1" t="inlineStr">
         <is>
-          <t>1185.1k</t>
+          <t>1185.1k usec</t>
         </is>
       </c>
       <c r="N20" s="1" t="inlineStr">
         <is>
-          <t>14830.62</t>
+          <t>14830.62 usec</t>
         </is>
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>767 usec</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>1187.3k</t>
+          <t>1187.3k usec</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>17586.21</t>
+          <t>17586.21 usec</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
@@ -2903,32 +2903,32 @@
       </c>
       <c r="L21" s="1" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>233 usec</t>
         </is>
       </c>
       <c r="M21" s="1" t="inlineStr">
         <is>
-          <t>726951</t>
+          <t>726951 usec</t>
         </is>
       </c>
       <c r="N21" s="1" t="inlineStr">
         <is>
-          <t>9798.96</t>
+          <t>9798.96 usec</t>
         </is>
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>699 usec</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>829431</t>
+          <t>829431 usec</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>18305.43</t>
+          <t>18305.43 usec</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
@@ -3025,32 +3025,32 @@
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>208 usec</t>
         </is>
       </c>
       <c r="M22" s="1" t="inlineStr">
         <is>
-          <t>629894</t>
+          <t>629894 usec</t>
         </is>
       </c>
       <c r="N22" s="1" t="inlineStr">
         <is>
-          <t>6072.57</t>
+          <t>6072.57 usec</t>
         </is>
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>652 usec</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>669866</t>
+          <t>669866 usec</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>23250.94</t>
+          <t>23250.94 usec</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
@@ -3147,32 +3147,32 @@
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>196 usec</t>
         </is>
       </c>
       <c r="M23" s="1" t="inlineStr">
         <is>
-          <t>841670</t>
+          <t>841670 usec</t>
         </is>
       </c>
       <c r="N23" s="1" t="inlineStr">
         <is>
-          <t>7904.69</t>
+          <t>7904.69 usec</t>
         </is>
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>455 usec</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>881095</t>
+          <t>881095 usec</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
         <is>
-          <t>30653.23</t>
+          <t>30653.23 usec</t>
         </is>
       </c>
       <c r="R23" s="1" t="inlineStr">
@@ -3269,32 +3269,32 @@
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>259 usec</t>
         </is>
       </c>
       <c r="M24" s="1" t="inlineStr">
         <is>
-          <t>713950</t>
+          <t>713950 usec</t>
         </is>
       </c>
       <c r="N24" s="1" t="inlineStr">
         <is>
-          <t>13431.51</t>
+          <t>13431.51 usec</t>
         </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>702 usec</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
         <is>
-          <t>736755</t>
+          <t>736755 usec</t>
         </is>
       </c>
       <c r="Q24" s="1" t="inlineStr">
         <is>
-          <t>22516.62</t>
+          <t>22516.62 usec</t>
         </is>
       </c>
       <c r="R24" s="1" t="inlineStr">
@@ -3391,32 +3391,32 @@
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>200 usec</t>
         </is>
       </c>
       <c r="M25" s="1" t="inlineStr">
         <is>
-          <t>470863</t>
+          <t>470863 usec</t>
         </is>
       </c>
       <c r="N25" s="1" t="inlineStr">
         <is>
-          <t>6761.86</t>
+          <t>6761.86 usec</t>
         </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>477 usec</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
         <is>
-          <t>492913</t>
+          <t>492913 usec</t>
         </is>
       </c>
       <c r="Q25" s="1" t="inlineStr">
         <is>
-          <t>21775.56</t>
+          <t>21775.56 usec</t>
         </is>
       </c>
       <c r="R25" s="1" t="inlineStr">
@@ -3513,32 +3513,32 @@
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>228 usec</t>
         </is>
       </c>
       <c r="M26" s="1" t="inlineStr">
         <is>
-          <t>763678</t>
+          <t>763678 usec</t>
         </is>
       </c>
       <c r="N26" s="1" t="inlineStr">
         <is>
-          <t>9333.86</t>
+          <t>9333.86 usec</t>
         </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>545 usec</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
-          <t>783086</t>
+          <t>783086 usec</t>
         </is>
       </c>
       <c r="Q26" s="1" t="inlineStr">
         <is>
-          <t>16738.10</t>
+          <t>16738.10 usec</t>
         </is>
       </c>
       <c r="R26" s="1" t="inlineStr">
@@ -3635,32 +3635,32 @@
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>197 usec</t>
         </is>
       </c>
       <c r="M27" s="1" t="inlineStr">
         <is>
-          <t>394791</t>
+          <t>394791 usec</t>
         </is>
       </c>
       <c r="N27" s="1" t="inlineStr">
         <is>
-          <t>12011.99</t>
+          <t>12011.99 usec</t>
         </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>452 usec</t>
         </is>
       </c>
       <c r="P27" s="1" t="inlineStr">
         <is>
-          <t>433936</t>
+          <t>433936 usec</t>
         </is>
       </c>
       <c r="Q27" s="1" t="inlineStr">
         <is>
-          <t>22695.29</t>
+          <t>22695.29 usec</t>
         </is>
       </c>
       <c r="R27" s="1" t="inlineStr">
@@ -3757,32 +3757,32 @@
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>199 usec</t>
         </is>
       </c>
       <c r="M28" s="1" t="inlineStr">
         <is>
-          <t>757779</t>
+          <t>757779 usec</t>
         </is>
       </c>
       <c r="N28" s="1" t="inlineStr">
         <is>
-          <t>11359.26</t>
+          <t>11359.26 usec</t>
         </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>497 usec</t>
         </is>
       </c>
       <c r="P28" s="1" t="inlineStr">
         <is>
-          <t>759788</t>
+          <t>759788 usec</t>
         </is>
       </c>
       <c r="Q28" s="1" t="inlineStr">
         <is>
-          <t>22316.50</t>
+          <t>22316.50 usec</t>
         </is>
       </c>
       <c r="R28" s="1" t="inlineStr">
@@ -3879,32 +3879,32 @@
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>199 usec</t>
         </is>
       </c>
       <c r="M29" s="1" t="inlineStr">
         <is>
-          <t>1048.2k</t>
+          <t>1048.2k usec</t>
         </is>
       </c>
       <c r="N29" s="1" t="inlineStr">
         <is>
-          <t>44761.00</t>
+          <t>44761.00 usec</t>
         </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>608 usec</t>
         </is>
       </c>
       <c r="P29" s="1" t="inlineStr">
         <is>
-          <t>1453.4k</t>
+          <t>1453.4k usec</t>
         </is>
       </c>
       <c r="Q29" s="1" t="inlineStr">
         <is>
-          <t>131398.97</t>
+          <t>131398.97 usec</t>
         </is>
       </c>
       <c r="R29" s="1" t="inlineStr">
@@ -4001,32 +4001,32 @@
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>201 usec</t>
         </is>
       </c>
       <c r="M30" s="1" t="inlineStr">
         <is>
-          <t>1040.4k</t>
+          <t>1040.4k usec</t>
         </is>
       </c>
       <c r="N30" s="1" t="inlineStr">
         <is>
-          <t>47766.21</t>
+          <t>47766.21 usec</t>
         </is>
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>694 usec</t>
         </is>
       </c>
       <c r="P30" s="1" t="inlineStr">
         <is>
-          <t>1649.9k</t>
+          <t>1649.9k usec</t>
         </is>
       </c>
       <c r="Q30" s="1" t="inlineStr">
         <is>
-          <t>118408.09</t>
+          <t>118408.09 usec</t>
         </is>
       </c>
       <c r="R30" s="1" t="inlineStr">
@@ -4123,32 +4123,32 @@
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>209 usec</t>
         </is>
       </c>
       <c r="M31" s="1" t="inlineStr">
         <is>
-          <t>768020</t>
+          <t>768020 usec</t>
         </is>
       </c>
       <c r="N31" s="1" t="inlineStr">
         <is>
-          <t>9527.72</t>
+          <t>9527.72 usec</t>
         </is>
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>496 usec</t>
         </is>
       </c>
       <c r="P31" s="1" t="inlineStr">
         <is>
-          <t>839150</t>
+          <t>839150 usec</t>
         </is>
       </c>
       <c r="Q31" s="1" t="inlineStr">
         <is>
-          <t>37284.45</t>
+          <t>37284.45 usec</t>
         </is>
       </c>
       <c r="R31" s="1" t="inlineStr">
@@ -4245,32 +4245,32 @@
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>209 usec</t>
         </is>
       </c>
       <c r="M32" s="1" t="inlineStr">
         <is>
-          <t>856821</t>
+          <t>856821 usec</t>
         </is>
       </c>
       <c r="N32" s="1" t="inlineStr">
         <is>
-          <t>6810.11</t>
+          <t>6810.11 usec</t>
         </is>
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>539 usec</t>
         </is>
       </c>
       <c r="P32" s="1" t="inlineStr">
         <is>
-          <t>894701</t>
+          <t>894701 usec</t>
         </is>
       </c>
       <c r="Q32" s="1" t="inlineStr">
         <is>
-          <t>24542.30</t>
+          <t>24542.30 usec</t>
         </is>
       </c>
       <c r="R32" s="1" t="inlineStr">
@@ -4367,32 +4367,32 @@
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>214 usec</t>
         </is>
       </c>
       <c r="M33" s="1" t="inlineStr">
         <is>
-          <t>515128</t>
+          <t>515128 usec</t>
         </is>
       </c>
       <c r="N33" s="1" t="inlineStr">
         <is>
-          <t>13644.58</t>
+          <t>13644.58 usec</t>
         </is>
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>501 usec</t>
         </is>
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t>526823</t>
+          <t>526823 usec</t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr">
         <is>
-          <t>17630.12</t>
+          <t>17630.12 usec</t>
         </is>
       </c>
       <c r="R33" s="1" t="inlineStr">
@@ -4489,32 +4489,32 @@
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>194 usec</t>
         </is>
       </c>
       <c r="M34" s="1" t="inlineStr">
         <is>
-          <t>736399</t>
+          <t>736399 usec</t>
         </is>
       </c>
       <c r="N34" s="1" t="inlineStr">
         <is>
-          <t>11785.94</t>
+          <t>11785.94 usec</t>
         </is>
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>488 usec</t>
         </is>
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
-          <t>783065</t>
+          <t>783065 usec</t>
         </is>
       </c>
       <c r="Q34" s="1" t="inlineStr">
         <is>
-          <t>23868.75</t>
+          <t>23868.75 usec</t>
         </is>
       </c>
       <c r="R34" s="1" t="inlineStr">
@@ -4611,32 +4611,32 @@
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>207 usec</t>
         </is>
       </c>
       <c r="M35" s="1" t="inlineStr">
         <is>
-          <t>503727</t>
+          <t>503727 usec</t>
         </is>
       </c>
       <c r="N35" s="1" t="inlineStr">
         <is>
-          <t>12004.24</t>
+          <t>12004.24 usec</t>
         </is>
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>515 usec</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
-          <t>521805</t>
+          <t>521805 usec</t>
         </is>
       </c>
       <c r="Q35" s="1" t="inlineStr">
         <is>
-          <t>16216.29</t>
+          <t>16216.29 usec</t>
         </is>
       </c>
       <c r="R35" s="1" t="inlineStr">
@@ -4733,32 +4733,32 @@
       </c>
       <c r="L36" s="1" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>218 usec</t>
         </is>
       </c>
       <c r="M36" s="1" t="inlineStr">
         <is>
-          <t>800710</t>
+          <t>800710 usec</t>
         </is>
       </c>
       <c r="N36" s="1" t="inlineStr">
         <is>
-          <t>9676.73</t>
+          <t>9676.73 usec</t>
         </is>
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>647 usec</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
-          <t>817326</t>
+          <t>817326 usec</t>
         </is>
       </c>
       <c r="Q36" s="1" t="inlineStr">
         <is>
-          <t>17008.13</t>
+          <t>17008.13 usec</t>
         </is>
       </c>
       <c r="R36" s="1" t="inlineStr">
@@ -4855,32 +4855,32 @@
       </c>
       <c r="L37" s="1" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>203 usec</t>
         </is>
       </c>
       <c r="M37" s="1" t="inlineStr">
         <is>
-          <t>1039.0k</t>
+          <t>1039.0k usec</t>
         </is>
       </c>
       <c r="N37" s="1" t="inlineStr">
         <is>
-          <t>43735.10</t>
+          <t>43735.10 usec</t>
         </is>
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>533 usec</t>
         </is>
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
-          <t>1312.8k</t>
+          <t>1312.8k usec</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr">
         <is>
-          <t>130479.17</t>
+          <t>130479.17 usec</t>
         </is>
       </c>
       <c r="R37" s="1" t="inlineStr">
@@ -4977,32 +4977,32 @@
       </c>
       <c r="L38" s="1" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>211 usec</t>
         </is>
       </c>
       <c r="M38" s="1" t="inlineStr">
         <is>
-          <t>463785</t>
+          <t>463785 usec</t>
         </is>
       </c>
       <c r="N38" s="1" t="inlineStr">
         <is>
-          <t>9487.62</t>
+          <t>9487.62 usec</t>
         </is>
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>828 usec</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
-          <t>481918</t>
+          <t>481918 usec</t>
         </is>
       </c>
       <c r="Q38" s="1" t="inlineStr">
         <is>
-          <t>16901.71</t>
+          <t>16901.71 usec</t>
         </is>
       </c>
       <c r="R38" s="1" t="inlineStr">
